--- a/export/export_files/Armasight Collector 320 1.56x19 Compact Thermal Weapon Sight/Armasight Collector 320 1.56x19.xlsx
+++ b/export/export_files/Armasight Collector 320 1.56x19 Compact Thermal Weapon Sight/Armasight Collector 320 1.56x19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.sportoptics.com/armasight-collector-320-1-5-6x19-mini-weapon-sight-tavt36wn9coll102.html?srsltid=AfmBOopwk4yKUwJSIykTTft_4PAkCK4AnSB7JeFitGbh95lp6jhNgMiV</t>
+          <t>https://www.sportoptics.com/armasight-collector-320-1-5-6x19-mini-weapon-sight-tavt36wn9coll102.html?srsltid=AfmBOorNGkNwmZ0sYcRQkn7LcIjWd5dWu0r36S6xM00M2HSAQQ3XqNwK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://nightvisionsupply.com/products/armasight-collector-320-1-5-6x-thermal-mini-weapon-sight-19mm-lens-gray?srsltid=AfmBOoqiQ777dXbNf8ASXotJTDuY2AidQWMYrv8_iaxpB_DB33ffKo32</t>
+          <t>https://nightvisionsupply.com/products/armasight-collector-320-1-5-6x-thermal-mini-weapon-sight-19mm-lens-gray?srsltid=AfmBOoqRNB44j7JQF6v_WGWOgrc4zTLR37gFby_SmJwuymbGcZ__D5IA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,36 +484,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://nightvisionuniverse.com/products/armasight-collector-compact-320-thermal-scope-19mm?srsltid=AfmBOop-qnMH25urR354lCxAqK4MAOcpDUnfE5FQoQs02p42mnwBjo0R</t>
+          <t>https://anvsinc.com/product/collector-320-compact-thermal-weapon-sight/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2199.0</t>
+          <t>2300.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://ads.opticsforce.com/products/armasight-collector-320-1-5-6x-thermal-mini-weapon-sight-19mm-lens-gray</t>
+          <t>https://brushbeater.store/products/armasight-collector-640-1-4x25-compact-thermal-weapon-sight?srsltid=AfmBOop3cix4jk_Ob4ui6w7sU6GZnbvznAjHUadKgDaTWUuVDirPQvdY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2199.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.thirdcoastthermal.com/products/collector-321</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2399.0</t>
+          <t>3499.0</t>
         </is>
       </c>
     </row>
